--- a/The Tile People/27272780/struct.xlsx
+++ b/The Tile People/27272780/struct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\The Tile People\27272780\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59855870-D1A6-411D-B782-FCE05149B25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5673A51C-C950-4430-8E20-619A09FDF140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="1320" windowWidth="28890" windowHeight="19455" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
+    <workbookView xWindow="10410" yWindow="1635" windowWidth="27885" windowHeight="19170" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="struct" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>resource</t>
   </si>
@@ -59,6 +59,24 @@
   </si>
   <si>
     <t>Tier 9</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>Checklist 2</t>
+  </si>
+  <si>
+    <t>MLA B4</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>D75</t>
+  </si>
+  <si>
+    <t>D76</t>
   </si>
 </sst>
 </file>
@@ -542,8 +560,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -919,11 +940,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E815DE-B877-4AFA-B9B2-ED8E95723021}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -964,6 +996,39 @@
       </c>
       <c r="M1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
